--- a/data/workloadredun.xlsx
+++ b/data/workloadredun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Working/Optimization/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE43A5B-FF9F-3945-A426-54E1B3DFF846}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE50CC-BB6A-BD4E-9364-FBB5D3BAFB5E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="460" windowWidth="27640" windowHeight="15820" activeTab="1" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
   </bookViews>
   <sheets>
     <sheet name="DC1" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A3671C-999B-8048-9754-A6AB011C612A}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A14" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,7 +1592,7 @@
       <c r="B17" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E15">
+  <sortState ref="A2:E14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6106ADFD-11D5-824D-8383-FC720EB1EB02}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/workloadredun.xlsx
+++ b/data/workloadredun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Working/Optimization/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE50CC-BB6A-BD4E-9364-FBB5D3BAFB5E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B35FA-E783-D240-BF46-E4C19C5BB994}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="3" xr2:uid="{8F198691-3026-7942-A2C4-D9F6FECBD38E}"/>
   </bookViews>
   <sheets>
     <sheet name="DC1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -459,6 +465,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,7 +791,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,16 +903,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <v>5.9489999999999998</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>4.1829999999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="12">
         <v>5.2889999999999997</v>
       </c>
     </row>
@@ -1041,7 +1057,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,36 +1199,36 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>0.26</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <v>0.188</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>0.26500000000000001</v>
       </c>
     </row>
@@ -1339,7 +1355,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A2:E14"/>
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,19 +1399,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <v>0.125</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="12">
         <v>0.13800000000000001</v>
       </c>
     </row>
@@ -1502,19 +1518,19 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>0.57899999999999996</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>0.96299999999999997</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -1570,16 +1586,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12">
         <v>0.48599999999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>0.53900000000000003</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <v>0.54900000000000004</v>
       </c>
     </row>
@@ -1604,7 +1621,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1664,16 +1681,17 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>0.52800000000000002</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>0.53400000000000003</v>
       </c>
     </row>
